--- a/05.Tasks/02.xlsx
+++ b/05.Tasks/02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\excel\05.Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A05B7E-F38D-4BD2-BC6A-0422661409D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243E160A-DB3A-4D4F-B9C6-BCA6A3FDA100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Площадь</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Столбец1</t>
+  </si>
+  <si>
+    <t>Итого:</t>
   </si>
 </sst>
 </file>
@@ -100,7 +103,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -109,14 +112,54 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Денежный" xfId="1" builtinId="4"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
     </dxf>
     <dxf>
       <font>
@@ -144,24 +187,6 @@
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -176,7 +201,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D5967687-3A91-48D8-98DA-0682075F25A3}" name="Таблица1" displayName="Таблица1" ref="C5:G160" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D5967687-3A91-48D8-98DA-0682075F25A3}" name="Таблица1" displayName="Таблица1" ref="C5:G161" totalsRowCount="1" headerRowDxfId="4">
   <autoFilter ref="C5:G160" xr:uid="{D5967687-3A91-48D8-98DA-0682075F25A3}">
     <filterColumn colId="1">
       <customFilters>
@@ -190,11 +215,13 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D1C640EC-0111-424C-90AF-6A37D85C9164}" name="Площадь"/>
-    <tableColumn id="2" xr3:uid="{E29D2B75-DDF7-4565-9D46-3FAAC291916C}" name="Цена" dataDxfId="2" dataCellStyle="Денежный"/>
+    <tableColumn id="1" xr3:uid="{D1C640EC-0111-424C-90AF-6A37D85C9164}" name="Площадь" totalsRowFunction="custom">
+      <totalsRowFormula>SUBTOTAL(2,C12:C112)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{E29D2B75-DDF7-4565-9D46-3FAAC291916C}" name="Цена" dataDxfId="3" totalsRowDxfId="1" dataCellStyle="Денежный" totalsRowCellStyle="Денежный"/>
     <tableColumn id="3" xr3:uid="{1B710E63-30A0-46FE-9991-641529DF8743}" name="Ванные"/>
     <tableColumn id="4" xr3:uid="{F9C7B961-3A76-475A-BEFE-078D2AF5633D}" name="Спальни"/>
-    <tableColumn id="5" xr3:uid="{011D9A77-0C04-4CE3-AC98-649A62C15E32}" name="Столбец1" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{011D9A77-0C04-4CE3-AC98-649A62C15E32}" name="Столбец1" dataDxfId="2" totalsRowDxfId="0">
       <calculatedColumnFormula>Таблица1[[#This Row],[Ванные]]+Таблица1[[#This Row],[Спальни]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -523,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C5:H160"/>
+  <dimension ref="B5:H161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3345,6 +3372,17 @@
         <f>Таблица1[[#This Row],[Ванные]]+Таблица1[[#This Row],[Спальни]]</f>
         <v>10</v>
       </c>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161">
+        <f>SUBTOTAL(2,C12:C112)</f>
+        <v>6</v>
+      </c>
+      <c r="D161" s="2"/>
+      <c r="G161" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3365,15 +3403,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AF8E4BBD310ADB419B3C5F1ACE4D113D" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="63e1bd94a874076348984a0131457edc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d1607db4-bd3f-4f82-a312-bf7e283d0a6b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c9989741aedae2f07a76d9f40ef2a18" ns2:_="">
     <xsd:import namespace="d1607db4-bd3f-4f82-a312-bf7e283d0a6b"/>
@@ -3433,6 +3462,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96C007-0B6E-48A2-8994-8B6C31AB568A}">
   <ds:schemaRefs>
@@ -3443,14 +3481,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93500E59-78EE-48D4-AA52-7DA38FAD0A32}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE7710A0-3E47-4582-AEA5-39F1D0DC409A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3465,4 +3495,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93500E59-78EE-48D4-AA52-7DA38FAD0A32}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>